--- a/TweetlerveHesaplar.xlsx
+++ b/TweetlerveHesaplar.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanercokyasar/Desktop/TBB/YLSYDer_programlari/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak10268\Documents\GitHub\YLSY_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E739DB9A-AAEE-754F-AD2A-4A9D2E5D64BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C217A2-AB14-4C94-8C6D-0FCE36CD3411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="504" windowWidth="33600" windowHeight="19116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="175">
   <si>
     <t>Iktidar Tagleri</t>
   </si>
@@ -272,15 +259,9 @@
     <t>@fatihcitlak</t>
   </si>
   <si>
-    <t xml:space="preserve">Garip ama gerçek “5 yılda 5000 bursiyer” sloganıyla çıktığımız yolda, 5 yılda 5 Milyon TL borç sahibi olduk. #ylsytazminat için çözüm ölüm değil, #sabitkur  </t>
-  </si>
-  <si>
     <t>@bybekirbozdag</t>
   </si>
   <si>
-    <t>YLSY bursiyerleri tazminatta kur artışından ciddi derecede etkileniyor. Borçlar en az 8 kat arttı. Borçlarımıza düzenleme istiyoruz. #sabitkur</t>
-  </si>
-  <si>
     <t>@memetsimsek</t>
   </si>
   <si>
@@ -308,9 +289,6 @@
     <t>@bbbozarslan</t>
   </si>
   <si>
-    <t>Yapılan ödeme 650 bin TL, istenen miktar 4.5 miyon TL. Adalet bunun neresinde? Adil bir çözüm için #sabitkur bekliyoruz #YLSYtazminat</t>
-  </si>
-  <si>
     <t>@ismailozdemirrr</t>
   </si>
   <si>
@@ -323,21 +301,12 @@
     <t>Devlet büyüklerimizden anlayış rica ediyoruz. 200.000 Amerikan Doları borcu 4 yılda ne iş yaparak ödeyebiliriz! #YLSYtazminat için #sabitkur çözümdür</t>
   </si>
   <si>
-    <t>Çarşıdan aldım 2 TL eve geldim 19 TL. Bilin bakalım bu nedir? Bu 9.5 katına çıkan #YLSYtazminat borcudur. #sabitkur bekliyoruz.</t>
-  </si>
-  <si>
-    <t>Ne #YLSYtazminat a düşeceğimizi ne de döviz kurunun 9 katına çıkacağını bilebilirdik. Biz fabrikatör değiliz, 4-5 Milyon TL ödeyemeyiz. #sabitkur mağduriyete son verir.</t>
-  </si>
-  <si>
     <t>YLSY bursiyelerinin sorunlarına çözüm üretecek birini arıyoruz. Çözümü çok kolay olan sorunlar, kaç bursiyerin daha hayatına mal olacak? #sabitkur #YLSYtazminat</t>
   </si>
   <si>
     <t>"Çok ağır bir piskolojik mücadele... Bu yükün altında bir süre sonra, insan sağlığını düşünme yetisini kaybediyor maalesef." diyor #YLSYtazminat mağduru. #sabitkur</t>
   </si>
   <si>
-    <t>"Maaşım 8000 lira iken 11000 lira aylık ödemem vardı." diyor #YLSYtazminat mağduru. Bu farkın sebebi öngörülemez kur artışı. Sanayicilere yüklenmeyen kur yükü bursiyerlere neden reva görülüyor? #sabitkur</t>
-  </si>
-  <si>
     <t>"4 sene boyunca hiç sosyal hayatım olmadı. Derdim sürekli borcu nasıl ödeyeceğim oldu. Sonrasında sürekli psikolojik terapiler ile geçti." diyor #YLSYtazminat mağduru. #sabitkur</t>
   </si>
   <si>
@@ -353,9 +322,6 @@
     <t>Ülkemizin yetişmiş insanlarıyız. Tazminatımızı ödememize, bizlere görev verilebilmesine kolaylık sağlanmasını istiyoruz. #YLSYtazminat #sabitkur</t>
   </si>
   <si>
-    <t>Aldığım YLSY bursunun TL karşılığı, tazminat olarak ödeme başlayana kadar en az 8 kat arttı, milyonları aştı. Enflasyon en çok bizi etkiliyor. Çözüm #sabitkur. #YLSYtazminat</t>
-  </si>
-  <si>
     <t>#YLSYtazminat bir kısır döngü. Çözümler kalıcı değil, MEB'in kasasından TL olarak çıkan miktarlar, TL olarak talep edilmeli. #sabitkur</t>
   </si>
   <si>
@@ -374,9 +340,6 @@
     <t>Doktora süresi ortalama 6 yıl ve yalnızca %80'in başarılı olarak tamamladığı bir süreç. MEB, bursiyerlerinden %100 başarıyı 5 yılda bekliyor. Başarısızlık ise #YLSYtazminat . Tazminat şartlarında iyileştirmeler bu istatistiklerle şart. #sabitkur</t>
   </si>
   <si>
-    <t xml:space="preserve">Geleceğe dair hayallerle yola çıkan bursiyerler #YLSYtazminat sürecinde ertesi günlerini dahi öngöremiyor. #sabitkur bu insanların kazanılması demektir. </t>
-  </si>
-  <si>
     <t>#YLSYtazminat sürecinde yaşanan psikolojik yıkım intihara sebep oluyor. Tazminat şartları #sabitkur ile iyileştirilmeli, para hiç bir candan daha önemli değil.</t>
   </si>
   <si>
@@ -386,12 +349,6 @@
     <t>TL ödenip döviz olarak geri istenen #YLSYtazminat borcuna #sabitkur getirilmelidir.</t>
   </si>
   <si>
-    <t xml:space="preserve">#YLSYtazminat  sürecinde olan bursiyerler #sabitkur  düzenlemesi bekliyor. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merkez Bankasından TL olarak ödenen miktarın dolar olarak istenmesi #YLSYtazminat  sürecinde olanlara kabus yaşatıyor. #sabitkur bekliyoruz </t>
-  </si>
-  <si>
     <t>Zamanında yapılan iyileştirmelerden biz de faydalanmak istiyoruz. Herkes kadar duyulmak anlaşılmak istiyoruz. #YLSYtazminat #sabitkur</t>
   </si>
   <si>
@@ -410,12 +367,6 @@
     <t>Uzun vadeli yeni bir borç yapılandırması ve #sabitkur #YLSYtazminat için lüks değil ihtiyaç</t>
   </si>
   <si>
-    <t>Doktora bitiririp gelirsen 16.000 TL için çalışıyorsun ama bitiremezsen ayda 80.000 TL ödüyorsun. Bu mantıklı mı? #sabitkur #YLSYtazminat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 yaşında imzaladığımız senetlerle hayatımız karardı. Biz bursu aldığımızda 1 euro 2 tl idi şimdi 18 tl oldu. #sabitkur #YLSYtazminat </t>
-  </si>
-  <si>
     <t>Ölürsek borçtan kurtuluyor muyuz? Hayır! Ölmemiz bile ailelerimizi #YLSYtazminat borcundan kurtarmıyor. Çözüm #sabitkur</t>
   </si>
   <si>
@@ -434,39 +385,15 @@
     <t>Devletimiz genç, yaşlı, emekli, işçi, memur demeden herkes için müjdeler açıklamakta. Lütfen #YLSYtazminat mağdurlarına #sabitkur getirin.</t>
   </si>
   <si>
-    <t>YLSY bursunu aldığım ilk gün Dolar 1.65 TL iken, bugün 10 kat artmış durumda. Borç, biz ödedikçe artmakta, bu tersliğin düzeltilmesi için #sabitkur #YLSYtazminat</t>
-  </si>
-  <si>
     <t>Dolar kazanıp TL harcayan holdinglere #sabitkur geldiği gibi, TL kazanıp Dolar borcu ödeyen bu ülkenin #YLSYtazminat mağduru gençlerine de bir düzenleme istirham etmekteyiz.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri, Arial"/>
-      </rPr>
-      <t xml:space="preserve">Örneği bulunan, daha önce uygulanmış torba yasaya girecek olan ufak bir madde #sabitkur Bkz. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri, Arial"/>
-      </rPr>
-      <t>https://www.resmigazete.gov.tr/eskiler/2006/07/20060708-3.htm</t>
-    </r>
-  </si>
-  <si>
     <t>#YLSYtazminat mağdurları öngörülemez döviz kuru yükselişi altında ezilmekte. Bir müjde de bu ülkenin yetişmiş beyinlerine verin. #sabitkur</t>
   </si>
   <si>
     <t>Idealleri uğruna yurtdışına eğitime gelmiş ve bir şekilde başarısız olup tazminata düşen gençler #sabitkur ile borçlarını ödemek istiyor. #YLSYtazminat icin #sabitkur</t>
   </si>
   <si>
-    <t>Doktorada başarının garantisi yok. Danışman engel olabilir.  Hasta olunabilir. Bir yakın ölür, eğitim yarıda kalır. Sebepler saymakla bitmez. #sabitkur #YLSYtazminat için çözümdür.</t>
-  </si>
-  <si>
     <t>Tweet Icerik</t>
   </si>
   <si>
@@ -486,13 +413,145 @@
   </si>
   <si>
     <t>@mfatihkacir</t>
+  </si>
+  <si>
+    <t>Garip ama gerçek “5 yılda 5000 bursiyer” sloganıyla çıktığımız yolda, 5 yılda 5 Milyon TL borç sahibi olduk. #ylsytazminat için çözüm ölüm değil, #sabitkur</t>
+  </si>
+  <si>
+    <t>YLSY bursiyerleri tazminatta kur artışından ciddi derecede etkileniyor. Borçlar en az 11 kat arttı. Borçlarımıza düzenleme istiyoruz. #sabitkur</t>
+  </si>
+  <si>
+    <t>Yapılan ödeme 650 bin TL, istenen miktar 6 miyon TL. Adalet bunun neresinde? Adil bir çözüm için #sabitkur bekliyoruz #YLSYtazminat</t>
+  </si>
+  <si>
+    <t>Çarşıdan aldım 2 TL eve geldim 26 TL. Bilin bakalım bu nedir? Bu 13 katına çıkan #YLSYtazminat borcudur. #sabitkur bekliyoruz.</t>
+  </si>
+  <si>
+    <t>Ne #YLSYtazminat a düşeceğimizi ne de döviz kurunun 13 katına çıkacağını bilebilirdik. Biz fabrikatör değiliz, 5-8 Milyon TL ödeyemeyiz. #sabitkur mağduriyete son verir.</t>
+  </si>
+  <si>
+    <t>"Maaşım 11000 lira iken 25000 lira aylık ödemem vardı." diyor #YLSYtazminat mağduru. Bu farkın sebebi öngörülemez kur artışı. Sanayicilere yüklenmeyen kur yükü bursiyerlere neden reva görülüyor? #sabitkur</t>
+  </si>
+  <si>
+    <t>Aldığım YLSY bursunun TL karşılığı, tazminat olarak ödeme başlayana kadar en az 12 kat arttı, milyonları aştı. Enflasyon en çok bizi etkiliyor. Çözüm #sabitkur. #YLSYtazminat</t>
+  </si>
+  <si>
+    <t>Geleceğe dair hayallerle yola çıkan bursiyerler #YLSYtazminat sürecinde ertesi günlerini dahi öngöremiyor. #sabitkur bu insanların kazanılması demektir.</t>
+  </si>
+  <si>
+    <t>#YLSYtazminat sürecinde olan bursiyerler #sabitkur düzenlemesi bekliyor.</t>
+  </si>
+  <si>
+    <t>Merkez Bankasından TL olarak ödenen miktarın dolar olarak istenmesi #YLSYtazminat sürecinde olanlara kabus yaşatıyor. #sabitkur bekliyoruz</t>
+  </si>
+  <si>
+    <t>Doktora bitiririp gelirsen 22.000 TL için çalışıyorsun ama bitiremezsen ayda 100.000 TL ödüyorsun. Bu mantıklı mı? #sabitkur #YLSYtazminat</t>
+  </si>
+  <si>
+    <t>22 yaşında imzaladığımız senetlerle hayatımız karardı. Biz bursu aldığımızda 1 euro 2 tl idi şimdi 29 tl oldu. #sabitkur #YLSYtazminat</t>
+  </si>
+  <si>
+    <t>YLSY bursunu aldığım ilk gün Dolar 1.65 TL iken, bugün 16 kat artmış durumda. Borç, biz ödedikçe artmakta, bu tersliğin düzeltilmesi için #sabitkur #YLSYtazminat</t>
+  </si>
+  <si>
+    <t>Örneği bulunan, daha önce uygulanmış torba yasaya girecek olan ufak bir madde #sabitkur Bkz. https://www.resmigazete.gov.tr/eskiler/2006/07/20060708-3.htm</t>
+  </si>
+  <si>
+    <t>Doktorada başarının garantisi yok. Danışman engel olabilir. Hasta olunabilir. Bir yakın ölür, eğitim yarıda kalır. Sebepler saymakla bitmez. #sabitkur #YLSYtazminat için çözümdür.</t>
+  </si>
+  <si>
+    <t>Bizler #YLSYtazminat bursiyerleri olarak haklarımızı savunuyoruz. Aynı hakkı şirketler alırken, neden biz almayalım? #sabitkur</t>
+  </si>
+  <si>
+    <t>Döviz borcuyla birlikte her gün yeni bir kabusun içine doğuyoruz. Bu kabustan çıkmak için #sabitkur talep ediyoruz. #YLSYtazminat</t>
+  </si>
+  <si>
+    <t>Bursiyerler olarak borcumuzu ödemek istiyoruz, ancak katlanan döviz kurları bizi zor durumda bırakıyor. Çözümümüz #sabitkur. #YLSYtazminat</t>
+  </si>
+  <si>
+    <t>Artan döviz kurları nedeniyle borçlarımız kontrol edilemez hale geldi. Bize de #sabitkur uygulanmasını talep ediyoruz. #YLSYtazminat</t>
+  </si>
+  <si>
+    <t>Yüksek döviz kurlarının baskısı altında eziliyoruz. Bu baskıyı hafifletecek tek çözüm #sabitkur. #YLSYtazminat</t>
+  </si>
+  <si>
+    <t>Eğitim bursu olarak verilen borçlar, döviz kurları nedeniyle katlanarak arttı. Borcumuzu ödemek istiyoruz, ancak önce #sabitkur. #YLSYtazminat</t>
+  </si>
+  <si>
+    <t>Her bursiyerin bir hikayesi var. Ancak ortak hikayemiz, döviz kurlarının yükünü taşıyamamak. Bu yükü hafifletecek çözüm #sabitkur. #YLSYtazminat</t>
+  </si>
+  <si>
+    <t>Ödediğimiz borçların döviz üzerinden katlandığını görmek bizi çaresiz bırakıyor. Bu çaresizliği gidermek için #sabitkur talep ediyoruz. #YLSYtazminat</t>
+  </si>
+  <si>
+    <t>Döviz kurlarındaki yükseliş, borçlarımızı katlanarak arttırıyor. Ödeme gücümüzü aşan bu borçları düşürmek için #sabitkur talep ediyoruz. #YLSYtazminat</t>
+  </si>
+  <si>
+    <t>Her birimiz ülkemizin geleceği için büyük umutlarla yola çıktık. Ancak döviz kurlarındaki artış, bu umutları karartıyor. #sabitkur bu umutları yeniden alevlendirecek. #YLSYtazminat</t>
+  </si>
+  <si>
+    <t>Yüksek döviz kurları nedeniyle borçlarımız katlandı, çözüm için #sabitkur istiyoruz! #YLSYtazminat</t>
+  </si>
+  <si>
+    <t>Devletimizden çözüm bekliyoruz! Döviz kurlarındaki yükseliş bizi zor duruma sokuyor. #sabitkur #YLSYtazminat</t>
+  </si>
+  <si>
+    <t>Ülkemize hizmet etmek için aldığımız eğitimin bedeli, döviz kurlarındaki yükseliş nedeniyle ödenemez hale geldi. #sabitkur #YLSYtazminat</t>
+  </si>
+  <si>
+    <t>Döviz kurlarındaki dalgalanmalardan korunmak ve borçlarımızı ödeyebilmek için #sabitkur istiyoruz. #YLSYtazminat</t>
+  </si>
+  <si>
+    <t>#YLYSTazminat ödeyen gençler olarak yorgunuz. Devletimizin hukukunun da makul bulduğu #sabitkur istiyoruz.</t>
+  </si>
+  <si>
+    <t>#YLYSTazminat borçlarının ödenebilir hale getirilmesi, hem hukuk mahkemelerindeki dava yükünü azaltacak hem de borcun geri dönüşü sağlanacak. #sabitkur</t>
+  </si>
+  <si>
+    <t>Burası çok önemli: #ylsytazminat nedeniyle yıllar süren davalar mahkemelere gereksiz iş yükü olarak yansımaktadır. Çözüm basit: #sabitkur</t>
+  </si>
+  <si>
+    <t>Hayatta başarılı olmak da olmamak da. Bir sebepten #YLYSTazminat a düşen genç insanların borcu yıllar içerisinde katlanarak arttı. Çözüm #sabitkur</t>
+  </si>
+  <si>
+    <t>Dövize bağlı, yüksek faizli, kısa vadeli #YLSYtazminat borcu yüzünden yaşanan psikolojik yıkım intiharlara sebep oluyor. Eğitim bursunun bedeli canlar olmasın! #sabitkur</t>
+  </si>
+  <si>
+    <t>#YLSYtazminat borcu burslular ve kefilleri için dağılan aileler, mutsuz çocuklar demek... #sabitkur lüks değil ihtiyaç!</t>
+  </si>
+  <si>
+    <t>Evimize ve kefillerin evlerine haciz gelme korkusuyla geçiyor günlerimiz #sabitkur ile insani bir çözüme ihtiyacımız var. #YLYSTazminat</t>
+  </si>
+  <si>
+    <t>#YLSYtazminat çok yıpratıcı bir süreç. Ödeme süresi çok kısa, faizi yüksek. Adeta bir burs değil yüksek faizli bir kredi! 4 yılda 200 bin Euro’yu hangi meslek grubu ödeyebilir!</t>
+  </si>
+  <si>
+    <t>Tazminatta en az 1000 bursiyeriz, ailelerimiz ve kefillerimiz ile 10 binlerce insan, ödendikçe artan #YLSYtazminat borcunun #sabitkur ile ödenebilecek hale gelmesini bekliyoruz.</t>
+  </si>
+  <si>
+    <t>#YLSYtazminat bursiyerleri olarak dövize endeksli borçlar yüzünden aşırı ifa güçlüğü çekiyoruz. Ailelerimiz ve kefillerimiz ile birlikte ağır borç yükü altında eziliyoruz. Talebimiz: #sabitkur</t>
+  </si>
+  <si>
+    <t>#YLSYtazminat döviz borcu kontrolsüz sürekli artan bir borçtur. Döviz kurunun bir yere sabitlenmesi şarttır. Artan döviz kurlarına karşı borca ödeyeceğimiz birikimimizi korumak istiyoruz. Kur korumalı mevduat gibi #Sabitkur istiyoruz.</t>
+  </si>
+  <si>
+    <t>Döviz kurlarındaki “olağanüstü” artış yüzünden “ifa güçlüğü”çekiyoruz. #Ylsy bursiyerinin döviz borcu kontrolsüz, sürekli artan bir borca dönüşüverdi. Bu mağduriyet ancak #sabitkur ile çözüme kavuşturulabilir.</t>
+  </si>
+  <si>
+    <t>Yüksek döviz kurları nedeniyle borçlarımızı ödeyemiyoruz, bu da eğitimimizi olumsuz etkiliyor. #SabitKur taleplerimize destek verin! #YLSYTazminat</t>
+  </si>
+  <si>
+    <t>Döviz kuru dalgalanmaları, #YLSYTazminat öğrencilerini de borç batağına sürüklüyor. Bizim de bir geleceğimiz var ve onu kurtarmak için #sabitkur talep ediyoruz.</t>
+  </si>
+  <si>
+    <t>Düşünün 2 milyon TL borcunuz var, seneye kur artışından dolayı 3 milyon TL oluyor. #ylsytazminat sürekli artan hiç bitmeyen bir borç! Ve üstelik sadece 4 yılda ödememiz isteniyor. #sabitkur istiyoruz.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -545,21 +604,9 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri, Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
-      <name val="Calibri, Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -594,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -610,9 +657,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -835,17 +883,17 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="137.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="28">
+    <row r="1" spans="1:24" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -881,7 +929,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24" ht="16">
+    <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -901,7 +949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16">
+    <row r="3" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -921,7 +969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16">
+    <row r="4" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -941,7 +989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16">
+    <row r="5" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -961,7 +1009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16">
+    <row r="6" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -981,7 +1029,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="16">
+    <row r="7" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -1002,7 +1050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="16">
+    <row r="8" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>35</v>
       </c>
@@ -1010,7 +1058,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>48</v>
@@ -1022,7 +1070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16">
+    <row r="9" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -1030,7 +1078,7 @@
         <v>41</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>55</v>
@@ -1042,7 +1090,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16">
+    <row r="10" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
@@ -1050,7 +1098,7 @@
         <v>46</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>59</v>
@@ -1060,7 +1108,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:24" ht="16">
+    <row r="11" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
@@ -1068,7 +1116,7 @@
         <v>51</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>63</v>
@@ -1078,7 +1126,7 @@
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:24" ht="16">
+    <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -1086,14 +1134,14 @@
         <v>54</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>56</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:24" ht="16">
+    <row r="13" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
@@ -1101,14 +1149,14 @@
         <v>58</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:24" ht="16">
+    <row r="14" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>61</v>
       </c>
@@ -1116,14 +1164,14 @@
         <v>62</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>64</v>
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:24" ht="16">
+    <row r="15" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
@@ -1133,7 +1181,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:24" ht="16">
+    <row r="16" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>67</v>
       </c>
@@ -1142,7 +1190,7 @@
       </c>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="16">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>70</v>
       </c>
@@ -1152,7 +1200,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="16">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>72</v>
       </c>
@@ -1164,7 +1212,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="16">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>74</v>
       </c>
@@ -1175,7 +1223,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="16">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>77</v>
       </c>
@@ -1186,370 +1234,515 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="16">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="16">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>81</v>
+        <v>132</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="16">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="16">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="16">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" ht="16">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="16">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" ht="16">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="16">
-      <c r="A29" s="3" t="s">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="16">
-      <c r="A30" s="3" t="s">
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="4"/>
+    </row>
+    <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="13">
-      <c r="A31" s="3" t="s">
+      <c r="B36" s="4"/>
+    </row>
+    <row r="37" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13">
-      <c r="A32" s="3" t="s">
+    <row r="38" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16">
-      <c r="A33" s="3" t="s">
+    <row r="39" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" ht="16">
-      <c r="A34" s="3" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B34" s="4"/>
-    </row>
-    <row r="35" spans="1:2" ht="16">
-      <c r="A35" s="3" t="s">
+    </row>
+    <row r="41" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" spans="1:2" ht="16">
-      <c r="A36" s="3" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="4"/>
-    </row>
-    <row r="37" spans="1:2" ht="13">
-      <c r="A37" s="3" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="13">
-      <c r="A38" s="3" t="s">
+    <row r="45" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="13">
-      <c r="A39" s="3" t="s">
+    <row r="46" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="13">
-      <c r="A40" s="3" t="s">
+    <row r="47" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15">
-      <c r="A41" s="6" t="s">
+    <row r="48" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15">
-      <c r="A42" s="6" t="s">
+    <row r="50" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15">
-      <c r="A43" s="6" t="s">
+    <row r="51" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15">
-      <c r="A44" s="6" t="s">
+    <row r="52" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15">
-      <c r="A45" s="6" t="s">
+    <row r="55" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15">
-      <c r="A46" s="6" t="s">
+    <row r="56" spans="1:1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15">
-      <c r="A47" s="6" t="s">
+    <row r="57" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="13">
-      <c r="A48" s="7" t="s">
+    <row r="58" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15">
-      <c r="A49" s="6" t="s">
+    <row r="59" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="13">
-      <c r="A50" s="3" t="s">
+    <row r="60" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="13">
-      <c r="A51" s="7" t="s">
+    <row r="63" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="13">
-      <c r="A52" s="7" t="s">
+    <row r="64" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="13">
-      <c r="A53" s="7" t="s">
+    <row r="65" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="19.5" customHeight="1">
-      <c r="A54" s="7" t="s">
+    <row r="66" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="13">
-      <c r="A55" s="7" t="s">
+    <row r="67" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18" customHeight="1">
-      <c r="A56" s="7" t="s">
+    <row r="68" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="13">
-      <c r="A57" s="7" t="s">
+    <row r="70" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="13">
-      <c r="A58" s="7" t="s">
+    <row r="72" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A72" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="13">
-      <c r="A59" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="13">
-      <c r="A60" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="13">
-      <c r="A61" s="7" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="13">
-      <c r="A62" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="13">
-      <c r="A63" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="13">
-      <c r="A64" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="13">
-      <c r="A65" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="13">
-      <c r="A66" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="15">
-      <c r="A67" s="8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" ht="15">
-      <c r="A68" s="8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" ht="15">
-      <c r="A69" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" ht="15">
-      <c r="A70" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" ht="15">
-      <c r="A71" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" ht="13">
-      <c r="A72" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" ht="13">
+    <row r="73" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" ht="13">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="7"/>
     </row>
-    <row r="115" spans="1:1" ht="13">
+    <row r="115" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
     </row>
-    <row r="116" spans="1:1" ht="13">
+    <row r="116" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="7"/>
     </row>
-    <row r="117" spans="1:1" ht="13">
+    <row r="117" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
     </row>
-    <row r="118" spans="1:1" ht="13">
+    <row r="118" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="7"/>
     </row>
-    <row r="121" spans="1:1" ht="13">
+    <row r="121" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="7"/>
     </row>
-    <row r="122" spans="1:1" ht="13">
+    <row r="122" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="7"/>
     </row>
-    <row r="126" spans="1:1" ht="13">
+    <row r="126" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="7"/>
     </row>
-    <row r="128" spans="1:1" ht="13">
+    <row r="128" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="7"/>
     </row>
-    <row r="129" spans="1:1" ht="13">
+    <row r="129" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="7"/>
     </row>
-    <row r="130" spans="1:1" ht="13">
+    <row r="130" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="7"/>
     </row>
-    <row r="131" spans="1:1" ht="13">
+    <row r="131" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="7"/>
     </row>
-    <row r="132" spans="1:1" ht="13">
+    <row r="132" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="7"/>
     </row>
-    <row r="133" spans="1:1" ht="15">
+    <row r="133" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="7"/>
     </row>
-    <row r="134" spans="1:1" ht="13">
+    <row r="134" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="7"/>
     </row>
-    <row r="135" spans="1:1" ht="13">
+    <row r="135" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="7"/>
     </row>
   </sheetData>
@@ -1557,9 +1750,7 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E14:F14"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A70" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TweetlerveHesaplar.xlsx
+++ b/TweetlerveHesaplar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ak10268\Documents\GitHub\YLSY_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C217A2-AB14-4C94-8C6D-0FCE36CD3411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A1E0B4-D70B-43EC-80C4-B8ED1E6D3323}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="504" windowWidth="33600" windowHeight="19116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="176">
   <si>
     <t>Iktidar Tagleri</t>
   </si>
@@ -545,13 +545,16 @@
   </si>
   <si>
     <t>Düşünün 2 milyon TL borcunuz var, seneye kur artışından dolayı 3 milyon TL oluyor. #ylsytazminat sürekli artan hiç bitmeyen bir borç! Ve üstelik sadece 4 yılda ödememiz isteniyor. #sabitkur istiyoruz.</t>
+  </si>
+  <si>
+    <t>@_cevdetyilmaz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -608,6 +611,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF536471"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -641,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -658,9 +668,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,9 +892,9 @@
   </sheetPr>
   <dimension ref="A1:X135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1121,10 +1132,10 @@
       <c r="D11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -1166,10 +1177,10 @@
       <c r="C14" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1333,14 +1344,20 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
         <v>135</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -1533,7 +1550,7 @@
       </c>
     </row>
     <row r="70" spans="1:1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="10" t="s">
         <v>144</v>
       </c>
     </row>
